--- a/2024/la2024w_program_v3.xlsx
+++ b/2024/la2024w_program_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuni/Desktop/la_homepage/la-symposium.github.io/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BD685EC-D32F-5948-A6F1-2B3DA3152C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8E16B6-815E-6A4E-9002-EA863EEE018A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="500" windowWidth="22020" windowHeight="16700" xr2:uid="{5AE5EA1D-C4D7-4146-9767-F07DAA1C33DA}"/>
   </bookViews>
@@ -697,25 +697,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>冬のLAシンポジウム2024 プログラム（ver 2、2025年1月23日更新）</t>
-    <rPh sb="0" eb="1">
-      <t>フユ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2025/1/28（火）続き</t>
     <rPh sb="12" eb="13">
       <t>ツヅ</t>
@@ -775,6 +756,25 @@
     <t>セッション2 （座長: 藤原 洋志）</t>
     <rPh sb="8" eb="10">
       <t>ザチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冬のLAシンポジウム2024 プログラム（ver 3、2025年1月24日更新）</t>
+    <rPh sb="0" eb="1">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1278,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26487CA-9182-4A5D-A3CD-ED81FE000D15}">
   <dimension ref="B1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1294,7 +1294,7 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -1310,7 +1310,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="2:6" ht="179" customHeight="1">
+    <row r="34" spans="2:6" ht="162" customHeight="1">
       <c r="B34" s="13"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
